--- a/biology/Médecine/Galle_musquée/Galle_musquée.xlsx
+++ b/biology/Médecine/Galle_musquée/Galle_musquée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Galle_musqu%C3%A9e</t>
+          <t>Galle_musquée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La galle musquée (aussi orthographiée galle muschée ou galle muscate) était une préparation médicinale à base de musc d'origine arabe, et transmise à l'Europe médiévale par l'intermédiaire de l'école de médecine de Salerne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Galle_musqu%C3%A9e</t>
+          <t>Galle_musquée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Origine et composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le premier élément du terme est emprunté à l'arabe « ġāliya », qui est attesté depuis Avicenne (début du XIe siècle), et décrit initialement l'ébullition que doit subir une préparation pharmaceutique, avant de désigner les médicaments composés eux-mêmes. Le mot est transcrit en latin sous la forme gallia muscata et les recettes passent dans les traités médicaux de Salerne (première mention vers 1165)[1].
-Les différentes substances étaient mêlées pour former des trochisques. Une formule attribuée à Mésué donne la composition suivante[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Le premier élément du terme est emprunté à l'arabe « ġāliya », qui est attesté depuis Avicenne (début du XIe siècle), et décrit initialement l'ébullition que doit subir une préparation pharmaceutique, avant de désigner les médicaments composés eux-mêmes. Le mot est transcrit en latin sous la forme gallia muscata et les recettes passent dans les traités médicaux de Salerne (première mention vers 1165).
+Les différentes substances étaient mêlées pour former des trochisques. Une formule attribuée à Mésué donne la composition suivante :
 Bois d'aloès – 5 parties ;
 Ambre – 3 parties ;
 Musc – 1 partie ;
